--- a/Статистика.xlsx
+++ b/Статистика.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>Пузырек</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Шейкерная сортировка</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -170,6 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -179,7 +183,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -452,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,7 +466,8 @@
   <dimension ref="A2:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +481,8 @@
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" customWidth="1"/>
     <col min="20" max="20" width="10.7109375" customWidth="1"/>
     <col min="21" max="21" width="11.5703125" customWidth="1"/>
@@ -485,34 +491,34 @@
   <sheetData>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="7" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="7" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="7" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -581,7 +587,7 @@
         <v>1000</v>
       </c>
       <c r="C5" s="1">
-        <f>A5*(A5-1)</f>
+        <f>$A5*($A5-1)</f>
         <v>999000</v>
       </c>
       <c r="D5" s="2">
@@ -590,36 +596,51 @@
       <c r="E5" s="2">
         <v>1232896</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>999999</v>
       </c>
       <c r="G5" s="3">
         <f>IFERROR(AVERAGE(D5:F5),0)</f>
         <v>1243798.3333333333</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="10">
+      <c r="H5" s="1">
+        <f>$A5*($A5-1)</f>
+        <v>999000</v>
+      </c>
+      <c r="I5" s="7">
         <v>1499500</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>1188896</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>2999</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" ref="L5:L7" si="0">IFERROR(AVERAGE(I5:K5),0)</f>
         <v>897131.66666666663</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="M5" s="1">
+        <f>$A5*($A5-1)</f>
+        <v>999000</v>
+      </c>
+      <c r="N5" s="7">
+        <v>499500</v>
+      </c>
+      <c r="O5" s="7">
+        <v>247610</v>
+      </c>
+      <c r="P5" s="7">
+        <v>999</v>
+      </c>
       <c r="Q5" s="3">
         <f t="shared" ref="Q5:Q7" si="1">IFERROR(AVERAGE(N5:P5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="1"/>
+        <v>249369.66666666666</v>
+      </c>
+      <c r="R5" s="1">
+        <f>$A5*($A5-1)</f>
+        <v>999000</v>
+      </c>
       <c r="S5" s="2">
         <v>999000</v>
       </c>
@@ -639,7 +660,7 @@
         <v>10000</v>
       </c>
       <c r="C6" s="1">
-        <f>A6*(A6-1)</f>
+        <f t="shared" ref="C6:C7" si="3">$A6*($A6-1)</f>
         <v>99990000</v>
       </c>
       <c r="D6" s="2">
@@ -648,36 +669,51 @@
       <c r="E6" s="2">
         <v>124911626</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <v>99999999</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G7" si="3">IFERROR(AVERAGE(D6:F6),0)</f>
+        <f t="shared" ref="G6:G7" si="4">IFERROR(AVERAGE(D6:F6),0)</f>
         <v>79965541.666666672</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H7" si="5">$A6*($A6-1)</f>
+        <v>99990000</v>
+      </c>
       <c r="I6" s="2">
         <v>14985000</v>
       </c>
       <c r="J6" s="2">
         <v>123881626</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="7">
         <v>29999</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="0"/>
         <v>46298875</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6:M7" si="6">$A6*($A6-1)</f>
+        <v>99990000</v>
+      </c>
+      <c r="N6" s="7">
+        <v>4999500</v>
+      </c>
+      <c r="O6" s="7">
+        <v>25153802</v>
+      </c>
+      <c r="P6" s="2">
+        <v>9999</v>
+      </c>
       <c r="Q6" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="1"/>
+        <v>10054433.666666666</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" ref="R6:R7" si="7">$A6*($A6-1)</f>
+        <v>99990000</v>
+      </c>
       <c r="S6" s="2">
         <v>9990000</v>
       </c>
@@ -694,42 +730,77 @@
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="C7" s="4">
-        <f>A7*(A7-1)</f>
-        <v>999999000000</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+        <f t="shared" si="3"/>
+        <v>9999900000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="H7" s="4">
+        <f t="shared" si="5"/>
+        <v>9999900000</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5">
+        <v>2999999</v>
+      </c>
       <c r="L7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+        <v>2999999</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="6"/>
+        <v>9999900000</v>
+      </c>
+      <c r="N7" s="5">
+        <v>704982704</v>
+      </c>
+      <c r="O7" s="5">
+        <f>2147483648+1794731541</f>
+        <v>3942215189</v>
+      </c>
+      <c r="P7" s="5">
+        <v>9999</v>
+      </c>
       <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+        <v>1549069297.3333333</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="7"/>
+        <v>9999900000</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1409965408</v>
+      </c>
+      <c r="T7" s="5">
+        <f>2147483648+1089224328</f>
+        <v>3236707976</v>
+      </c>
+      <c r="U7" s="5">
+        <v>705082703</v>
+      </c>
       <c r="V7" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1783918695.6666667</v>
       </c>
     </row>
   </sheetData>
